--- a/Filns_Backend2/Filns_Backend/Filns_Backend/exampleFiles/Testsheet1.xlsx
+++ b/Filns_Backend2/Filns_Backend/Filns_Backend/exampleFiles/Testsheet1.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45615\source\repos\CreateWordDoc1\CreateWordDoc1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hansb\source\repos\FILNS_DATA\Filns_Backend2\Filns_Backend\Filns_Backend\exampleFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7276D9F2-EA09-4934-8438-0C8C273FBD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CFE2BA-BBC9-4CE8-80FD-7760A18C8614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="0" windowWidth="10140" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="asfas">'Ark1'!$A$1:$A$4</definedName>
+    <definedName name="lastname">'Ark1'!$A$2</definedName>
+    <definedName name="name">'Ark1'!$A$1</definedName>
+    <definedName name="TESTVAR">'Ark1'!$A$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Jensen</t>
   </si>
   <si>
     <t>Filip</t>
+  </si>
+  <si>
+    <t>varvar</t>
   </si>
 </sst>
 </file>
@@ -352,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -383,6 +389,11 @@
         <v>44503</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
